--- a/BalanceSheet/DRI_bal.xlsx
+++ b/BalanceSheet/DRI_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>14800000.0</v>
+        <v>188000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-12900000.0</v>
+        <v>203000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>16800000.0</v>
+        <v>190000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>8200000.0</v>
+        <v>207000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-17300000.0</v>
+        <v>230000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>212200000.0</v>
@@ -1723,19 +1723,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>7300000.0</v>
+        <v>239000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-20400000.0</v>
+        <v>236000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-4400000.0</v>
+        <v>249000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-89200000.0</v>
+        <v>249000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>25900000.0</v>
+        <v>360000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>340200000.0</v>
@@ -2928,19 +2928,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-4300000.0</v>
+        <v>40000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>2000000.0</v>
+        <v>45000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-10000000.0</v>
+        <v>43000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-131700000.0</v>
+        <v>56000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>6500000.0</v>
+        <v>189000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>182100000.0</v>
